--- a/biology/Botanique/Halimione_portulacoides/Halimione_portulacoides.xlsx
+++ b/biology/Botanique/Halimione_portulacoides/Halimione_portulacoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Obione faux-pourpier, Arroche faux-pourpier
-L'Obione faux-pourpier ou Arroche faux-pourpier, Halimione portulacoides, est une plante de la famille des Chenopodiaceae selon la classification classique de Cronquist (1981)[1], ou des Amaranthaceae selon la classification phylogénétique.
+L'Obione faux-pourpier ou Arroche faux-pourpier, Halimione portulacoides, est une plante de la famille des Chenopodiaceae selon la classification classique de Cronquist (1981), ou des Amaranthaceae selon la classification phylogénétique.
 </t>
         </is>
       </c>
@@ -512,16 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Obione a été considérée comme une espèce dans un genre à part avant d'être rattachée au genre Halimione.
-Synonymes
-Obione portulacoides
-Atriplex portulacoides L. (basionyme)
-Chenopodium portulacoides (L.) Thunb.
-Halimus portulacoides (L.) Dumort.
-Étymologie
-L'Obione tire son nom du fleuve sibérien l'Ob.
 </t>
         </is>
       </c>
@@ -547,14 +554,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'obione faux-pourpier est un sous-arbrisseau de 20 à 50 cm. Les feuilles sont blanc argenté, avec de nombreuses tiges couchées formant des tiges compactes.
-La floraison a lieu de juillet à octobre[2],[3]. Les fleurs sont minuscules et d'un blanc-jaunâtre.
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Obione portulacoides
+Atriplex portulacoides L. (basionyme)
+Chenopodium portulacoides (L.) Thunb.
+Halimus portulacoides (L.) Dumort.</t>
         </is>
       </c>
     </row>
@@ -579,12 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est une plante présente  dans tout le bassin méditerranéen[3] et océanique.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Obione tire son nom du fleuve sibérien l'Ob.
 </t>
         </is>
       </c>
@@ -610,12 +630,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitats</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Terrains salés en bordure de mer, milieux arides.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'obione faux-pourpier est un sous-arbrisseau de 20 à 50 cm. Les feuilles sont blanc argenté, avec de nombreuses tiges couchées formant des tiges compactes.
+La floraison a lieu de juillet à octobre,. Les fleurs sont minuscules et d'un blanc-jaunâtre.
 </t>
         </is>
       </c>
@@ -641,10 +664,78 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante présente  dans tout le bassin méditerranéen et océanique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Halimione_portulacoides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halimione_portulacoides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Habitats</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Terrains salés en bordure de mer, milieux arides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Halimione_portulacoides</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halimione_portulacoides</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est pas considérée comme étant menacée en France. En 2021 elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
 Toutefois localement l'espèce peut se raréfier : elle est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques n'étaient pas prises, dans les régions Picardie et Nord-Pas-de-Calais ; elle est en Danger-critique (CR) en Haute-Normandie.
@@ -652,31 +743,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Halimione_portulacoides</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Halimione_portulacoides</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Halimione_portulacoides</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halimione_portulacoides</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Obione est une plante comestible consommée fraiche en salade et/ou séchée en condiments (comme des chips).
 </t>
